--- a/medicine/Psychotrope/Décoction/Décoction.xlsx
+++ b/medicine/Psychotrope/Décoction/Décoction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9coction</t>
+          <t>Décoction</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La décoction est une méthode d'extraction des principes actifs ou des arômes d'une préparation généralement végétale par dissolution dans l'eau en ébullition. Elle s'applique généralement aux parties les plus dures des plantes : racines, graines, écorce, bois. Elle est utilisée en herboristerie, en teinture, en brasserie et en cuisine. Le terme désigne également les préparations obtenues par cette méthode.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9coction</t>
+          <t>Décoction</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour réaliser une décoction, les parties de plantes sont, si nécessaire, coupées et fractionnées, puis placées dans l'eau froide. Le mélange est porté à ébullition et maintenu à température pendant une durée variable, généralement entre deux et quinze minutes, puis il refroidit avant d'être filtré, à l'aide d'une passoire par exemple.
 La décoction ne doit pas être confondue avec :
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9coction</t>
+          <t>Décoction</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lors du brassage de la bière, la décoction permet la transformation de la maische (mélange de malt et d'eau) et favorise l'action des enzymes responsables de la transformation des sucres (protéase, bêta-amylase et alpha-amylase).
 L'eau de saule est une décoction de saule permettant de faciliter le bouturage des végétaux.
